--- a/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-Disb2ndTranche.xlsx
+++ b/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-Disb2ndTranche.xlsx
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -168,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -193,6 +200,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +641,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,8 +993,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="10"/>
+    <col min="3" max="3" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
